--- a/Plan de Actividades.xlsx
+++ b/Plan de Actividades.xlsx
@@ -1,26 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Escritorio\2021_LENGUAJES_TAREA_1_BLACEJACK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC122CF4-A068-4D9F-88B1-234F91690D7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9C3F908-519C-42D8-BB57-E53B170551D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Responsable a cargo</t>
+  </si>
+  <si>
+    <t>Tiempo estimado de completitud</t>
+  </si>
+  <si>
+    <t>Descripción de la tarea</t>
+  </si>
+  <si>
+    <t>Fecha de entrega</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +63,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +93,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,7 +134,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +150,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +162,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -114,7 +179,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +209,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +261,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +429,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FABEE4C-4A90-408D-BADB-43F9A07AF694}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plan de Actividades.xlsx
+++ b/Plan de Actividades.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Escritorio\2021_LENGUAJES_TAREA_1_BLACEJACK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC122CF4-A068-4D9F-88B1-234F91690D7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{356FA57B-5681-4654-BD4A-2FC3D72DC9BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9C3F908-519C-42D8-BB57-E53B170551D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,28 +34,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+  <si>
+    <t>Historia de Usuario</t>
+  </si>
   <si>
     <t>Tarea</t>
   </si>
   <si>
+    <t>Descripción de la tarea</t>
+  </si>
+  <si>
+    <t>Tiempo estimado de completitud</t>
+  </si>
+  <si>
     <t>Responsable a cargo</t>
   </si>
   <si>
-    <t>Tiempo estimado de completitud</t>
-  </si>
-  <si>
-    <t>Descripción de la tarea</t>
-  </si>
-  <si>
     <t>Fecha de entrega</t>
+  </si>
+  <si>
+    <t>Implementar la función (bCEj x)</t>
+  </si>
+  <si>
+    <t>Esta función será la que da inicio al juego, donde X es la cantidad de jugadores como maximo 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 día </t>
+  </si>
+  <si>
+    <t>Programar el crupier</t>
+  </si>
+  <si>
+    <t>Implementar todas las reglas del crupier</t>
+  </si>
+  <si>
+    <t>2 días</t>
+  </si>
+  <si>
+    <t>Funciones de el mazo de cartas</t>
+  </si>
+  <si>
+    <t>Implementar los metodos que controlen la disponibilidad de las cartas y las cartas a repartir</t>
+  </si>
+  <si>
+    <t>Implementar control de puntuacion del jugador</t>
+  </si>
+  <si>
+    <t>Implementar los metodos relacionados a la suma de puntos al tomar una carta nueva.</t>
+  </si>
+  <si>
+    <t>Implementar la condicion de victoria</t>
+  </si>
+  <si>
+    <t>Esta función determina si el jugador ha ganado, esto pasa cuando el jugador tiene un BlackJack, 21 o si su puntación es mejor que la del crupier.</t>
+  </si>
+  <si>
+    <t>Implementar la condicion de derrota</t>
+  </si>
+  <si>
+    <t>Esta función determina si el jugador ha perdido, esto pasa si el jugador sobrepasa su puntuación de 21, o la puntuación obtenida es peor que la del crupier, o si el crupier tiene blackjack.</t>
+  </si>
+  <si>
+    <t>implementar función para identificar turno</t>
+  </si>
+  <si>
+    <t>Implementar una función que identifique el jugador que se encuentra jugando en el momento del turno</t>
+  </si>
+  <si>
+    <t>Implementar función para pedir cartas</t>
+  </si>
+  <si>
+    <t>Implementar la sumatoria dependiendo de la carta que haya salido</t>
+  </si>
+  <si>
+    <t>Implementar función para plantarse</t>
+  </si>
+  <si>
+    <t>Implementar la función que permita pasar de turno cuando un jugador se haya plantado</t>
+  </si>
+  <si>
+    <t>Interfaz</t>
+  </si>
+  <si>
+    <t>Investigar interfaz en Scheme.</t>
+  </si>
+  <si>
+    <t>Se debe mostrar una interfaz que permita visualizar el maso y las cartas de los jugadores excepto la primera.</t>
+  </si>
+  <si>
+    <t>Mostrar el maso</t>
+  </si>
+  <si>
+    <t>Implementar en la interfaz la visualización del maso para los jugadores.</t>
+  </si>
+  <si>
+    <t>Mostrar las cartas de los jugadores</t>
+  </si>
+  <si>
+    <t>Implementar en la interfaz la visualización de las cartas de los jugadores.</t>
+  </si>
+  <si>
+    <t>Debe existir una opción (botón/instrucción) para que los jugadores soliciten una nueva carta o se planten</t>
+  </si>
+  <si>
+    <t>Creacion del la opcion para que los jugadores soliciten más cartas.</t>
+  </si>
+  <si>
+    <t>Implementar la visualización y comunicar con la funcionalidad del botón para que los jugadores puedan pedir más cartas.</t>
+  </si>
+  <si>
+    <t>Creacion del la opcion para que los jugadores se planten.</t>
+  </si>
+  <si>
+    <t>Implementar la visualización y comunicar con la funcionalidad del botón para que los jugadores puedan plantarse.</t>
+  </si>
+  <si>
+    <t>El juego es contra la máquina(quien es el Crupier).</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar una interfaz gráfica amigable con el usuario.</t>
+  </si>
+  <si>
+    <t>Mejorar diseño de interfaz</t>
+  </si>
+  <si>
+    <t>Buscar imagénes de cartas, background, imágenes de botones, labels, etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +183,31 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -85,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -103,8 +242,33 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -112,10 +276,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,38 +641,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FABEE4C-4A90-408D-BADB-43F9A07AF694}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.21875" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:C15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
